--- a/src/test/resources/Batch11_DevEx1.xlsx
+++ b/src/test/resources/Batch11_DevEx1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexa\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{822592D4-5F0B-4DB0-9492-4541271F3569}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32BC7E2D-1F52-47BE-A9B0-318BE2877EB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="40">
   <si>
     <t>Username</t>
   </si>
@@ -142,6 +142,9 @@
   </si>
   <si>
     <t>Kalamar7164.,</t>
+  </si>
+  <si>
+    <t>zk</t>
   </si>
 </sst>
 </file>
@@ -512,7 +515,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -623,7 +626,7 @@
         <v>24</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75">
